--- a/data/trans_bre/P44-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P44-Clase-trans_bre.xlsx
@@ -618,7 +618,7 @@
         <v>-7.740697615012791</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-8.067831943847924</v>
+        <v>-8.067831943847908</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>0.6140274201641804</v>
@@ -627,7 +627,7 @@
         <v>-0.4329476583897946</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>-0.1589110697779031</v>
+        <v>-0.1589110697779028</v>
       </c>
     </row>
     <row r="5">
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.113315183465359</v>
+        <v>-3.469358302244881</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-16.03400355791052</v>
+        <v>-16.30446959253507</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-16.26568183380878</v>
+        <v>-15.72056025773509</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.2760497325481122</v>
+        <v>-0.2426357124432198</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.7582108592459847</v>
+        <v>-0.7460368107377684</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.2969601047336717</v>
+        <v>-0.2894301349536694</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>23.77641596073219</v>
+        <v>23.91571154541118</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.481275124199942</v>
+        <v>1.154920712264255</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.5022158204388639</v>
+        <v>0.03404022769532097</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>2.36471402472081</v>
+        <v>2.333868406837562</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.1548494348351771</v>
+        <v>0.1693285202733291</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.01363986816558524</v>
+        <v>-0.002111308432109931</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +700,7 @@
         <v>-13.25360654665455</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>-1.380755910260401</v>
+        <v>-1.380755910260406</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.105634703501342</v>
@@ -709,7 +709,7 @@
         <v>-0.705557182988494</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.0381659409411948</v>
+        <v>-0.03816594094119495</v>
       </c>
     </row>
     <row r="8">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-7.780811009039369</v>
+        <v>-8.261787529384682</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-21.59447854901602</v>
+        <v>-21.18699509739451</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-9.598766042672729</v>
+        <v>-9.906456323911939</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.6004717003137953</v>
+        <v>-0.6052107835453108</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.8929093535939476</v>
+        <v>-0.906156553792565</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2375490687394215</v>
+        <v>-0.2427881525062338</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>11.63136864177237</v>
+        <v>12.50747752715874</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-5.415910967583945</v>
+        <v>-4.192040464509719</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.373993928976888</v>
+        <v>6.767372058036576</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.589061644625349</v>
+        <v>1.759045688363011</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.2717994626000427</v>
+        <v>-0.2246246477993852</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2305326696738023</v>
+        <v>0.2172357395474549</v>
       </c>
     </row>
     <row r="10">
@@ -782,7 +782,7 @@
         <v>-2.183769168984988</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-5.759890032986348</v>
+        <v>-5.759890032986354</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>-0.1932491552181806</v>
@@ -791,7 +791,7 @@
         <v>-0.1947581277787796</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>-0.1494998417455973</v>
+        <v>-0.1494998417455974</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-8.783927063384986</v>
+        <v>-8.648039894434161</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-8.881775939226751</v>
+        <v>-9.377182128252588</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-14.57567245362901</v>
+        <v>-14.29030644129896</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.6625867343603195</v>
+        <v>-0.6011109211846255</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.6981838400525083</v>
+        <v>-0.718751871060068</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.348496744126121</v>
+        <v>-0.3443825003059964</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.370872047662867</v>
+        <v>6.664285481647362</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.489093290440809</v>
+        <v>6.082979863161951</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.2359325399724</v>
+        <v>3.955541757876491</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.6351649505923497</v>
+        <v>0.8886752686814628</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.7824310586428249</v>
+        <v>0.6646984051801704</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.09738905057261679</v>
+        <v>0.1055910944960738</v>
       </c>
     </row>
     <row r="13">
@@ -864,7 +864,7 @@
         <v>-0.2373473000206308</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>-3.308691496919508</v>
+        <v>-3.308691496919502</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.06372404570045893</v>
@@ -873,7 +873,7 @@
         <v>-0.02438380382648022</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.1031027602156662</v>
+        <v>-0.103102760215666</v>
       </c>
     </row>
     <row r="14">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-5.067202851632793</v>
+        <v>-4.992008800175574</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-4.358803978323058</v>
+        <v>-4.866959562712626</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-8.048252540542986</v>
+        <v>-8.484535370603405</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.5063128191426061</v>
+        <v>-0.5072442769522637</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3978518209551434</v>
+        <v>-0.4416300802522049</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2345584945156671</v>
+        <v>-0.2485478529407983</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.428055046472338</v>
+        <v>4.507007935132804</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>5.559178226846405</v>
+        <v>4.618735489757857</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.395066452946347</v>
+        <v>2.284403817607981</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.7153896523488295</v>
+        <v>0.6572118277285897</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6494457979144804</v>
+        <v>0.5682909417604426</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.04659862693679453</v>
+        <v>0.07574572258533242</v>
       </c>
     </row>
     <row r="16">
@@ -946,7 +946,7 @@
         <v>-1.387754262747981</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-2.301416102648107</v>
+        <v>-2.301416102648113</v>
       </c>
       <c r="F16" s="6" t="n">
         <v>0.4888819959872781</v>
@@ -955,7 +955,7 @@
         <v>-0.1518410182006508</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>-0.08019898448087566</v>
+        <v>-0.08019898448087585</v>
       </c>
     </row>
     <row r="17">
@@ -966,22 +966,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.931031546660538</v>
+        <v>-2.569283669744585</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-5.812761340502449</v>
+        <v>-5.616597660419572</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-8.745074456386687</v>
+        <v>-8.811265328446432</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.2845977998812315</v>
+        <v>-0.3339024944788072</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.5055551906283334</v>
+        <v>-0.4801987759125368</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.260780566424494</v>
+        <v>-0.2628957508557562</v>
       </c>
     </row>
     <row r="18">
@@ -992,22 +992,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.734903550100787</v>
+        <v>6.135410246271906</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.827077387617168</v>
+        <v>2.920233458048599</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.524399800316219</v>
+        <v>3.822690672756467</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2.477631694740104</v>
+        <v>2.12102225527101</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.4151961069420381</v>
+        <v>0.4491747961159632</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1459736105305285</v>
+        <v>0.1527033838826486</v>
       </c>
     </row>
     <row r="19">
@@ -1028,7 +1028,7 @@
         <v>6.116915498874497</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>-5.551620522834261</v>
+        <v>-5.551620522834256</v>
       </c>
       <c r="F19" s="6" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         </is>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.1652274339020385</v>
+        <v>-0.1652274339020384</v>
       </c>
     </row>
     <row r="20">
@@ -1052,18 +1052,18 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>3.635993766544332</v>
+        <v>3.603142806059915</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>4.412909306040645</v>
+        <v>4.362517423908551</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-32.16491413971188</v>
+        <v>-34.423808648364</v>
       </c>
       <c r="F20" s="6" t="inlineStr"/>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="n">
-        <v>-0.5371971653733091</v>
+        <v>-0.5519801429312867</v>
       </c>
     </row>
     <row r="21">
@@ -1074,18 +1074,18 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>7.333277524653817</v>
+        <v>6.922851360723358</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>8.470509267442756</v>
+        <v>8.304937863129005</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>15.28335301032928</v>
+        <v>14.71223274192933</v>
       </c>
       <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="n">
-        <v>1.135893876583882</v>
+        <v>1.043510644282232</v>
       </c>
     </row>
     <row r="22">
@@ -1106,7 +1106,7 @@
         <v>-4.352420293884009</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-6.043015513918581</v>
+        <v>-6.043015513918576</v>
       </c>
       <c r="F22" s="6" t="n">
         <v>-0.2170990341933386</v>
@@ -1115,7 +1115,7 @@
         <v>-0.3688709574963049</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>-0.1661244231175767</v>
+        <v>-0.1661244231175766</v>
       </c>
     </row>
     <row r="23">
@@ -1126,22 +1126,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-4.292554191960274</v>
+        <v>-4.46567878285336</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-6.682878778616772</v>
+        <v>-6.582280655016259</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-8.558887208139268</v>
+        <v>-8.914407262211885</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>-0.4086275165268625</v>
+        <v>-0.4135144934069563</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.4987438933114265</v>
+        <v>-0.5000123046479658</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.2248646863297628</v>
+        <v>-0.236878807660077</v>
       </c>
     </row>
     <row r="24">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1923371735043295</v>
+        <v>0.3129753082823876</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-1.980878415719066</v>
+        <v>-2.075786720581329</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-3.135606524301038</v>
+        <v>-3.272319875652952</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>0.01653065550997717</v>
+        <v>0.03617207116943452</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>-0.1797199154531132</v>
+        <v>-0.1880948192492571</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>-0.08901898725287666</v>
+        <v>-0.09312397447624902</v>
       </c>
     </row>
     <row r="25">
